--- a/Dataforexpreiment/图/62PC的正常执行的延迟的吞吐量.xlsx
+++ b/Dataforexpreiment/图/62PC的正常执行的延迟的吞吐量.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>交易大小</t>
   </si>
   <si>
     <t>交易轮数</t>
-  </si>
-  <si>
-    <t>δ</t>
   </si>
   <si>
     <t>Δ</t>
@@ -972,13 +969,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="E13:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="17.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="18.7416666666667" customWidth="1"/>
@@ -997,17 +994,15 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1017,22 +1012,17 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="2">
         <v>100</v>
       </c>
       <c r="E2">
-        <f>SUM(A2/E13*1000)</f>
         <v>598.543981909607</v>
       </c>
       <c r="F2">
-        <f>SUM(A2/F13*1000*B2)</f>
         <v>413.1000639892</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
@@ -1042,22 +1032,17 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="2">
         <v>100</v>
       </c>
       <c r="E3">
-        <f>SUM(A3/E14*1000)*B3</f>
         <v>588.158833469296</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F8" si="0">SUM(A3/F14*1000*B3)</f>
         <v>411.315960169808</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
@@ -1067,22 +1052,17 @@
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="2">
         <v>100</v>
       </c>
       <c r="E4">
-        <f>SUM(A4/E15*1000)*B4</f>
         <v>581.151738137676</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
         <v>415.935140737894</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
@@ -1092,22 +1072,17 @@
       <c r="B5">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="2">
         <v>100</v>
       </c>
       <c r="E5">
-        <f>SUM(A5/E16*1000)*B5</f>
         <v>580.308619730145</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
         <v>412.780339767753</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
@@ -1117,22 +1092,17 @@
       <c r="B6">
         <v>50</v>
       </c>
-      <c r="C6" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="2">
         <v>100</v>
       </c>
       <c r="E6">
-        <f>SUM(A6/E17*1000)*B6</f>
         <v>579.467944123065</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
         <v>407.278722415521</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
@@ -1142,22 +1112,17 @@
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="2">
         <v>100</v>
       </c>
       <c r="E7">
-        <f>SUM(A7/E18*1000)*B7</f>
         <v>580.645573361375</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
         <v>406.087907473683</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
@@ -1167,79 +1132,18 @@
       <c r="B8">
         <v>200</v>
       </c>
-      <c r="C8" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="2">
         <v>100</v>
       </c>
       <c r="E8">
-        <f>SUM(A8/E19*1000)*B8</f>
         <v>579.887977240557</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
         <v>404.719679008728</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="13" spans="5:6">
-      <c r="E13">
-        <v>668.2884</v>
-      </c>
-      <c r="F13">
-        <v>968.2884</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6">
-      <c r="E14">
-        <v>3400.442</v>
-      </c>
-      <c r="F14">
-        <v>4862.442</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6">
-      <c r="E15">
-        <v>6882.884</v>
-      </c>
-      <c r="F15">
-        <v>9616.884</v>
-      </c>
-    </row>
-    <row r="16" spans="5:6">
-      <c r="E16">
-        <v>13785.768</v>
-      </c>
-      <c r="F16">
-        <v>19380.768</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17">
-        <v>34514.42</v>
-      </c>
-      <c r="F17">
-        <v>49106.42</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18">
-        <v>68888.84</v>
-      </c>
-      <c r="F18">
-        <v>98500.84</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19">
-        <v>137957.68</v>
-      </c>
-      <c r="F19">
-        <v>197667.68</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
